--- a/src/test/resources/Test_Data.xlsx
+++ b/src/test/resources/Test_Data.xlsx
@@ -9,21 +9,22 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="7350" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Login" sheetId="1" r:id="rId1"/>
     <sheet name="Search" sheetId="2" r:id="rId2"/>
     <sheet name="SignIn" sheetId="3" r:id="rId3"/>
-    <sheet name="PersonSearch" sheetId="4" r:id="rId4"/>
-    <sheet name="CaseCreation" sheetId="5" r:id="rId5"/>
+    <sheet name="Sign_Keyword" sheetId="6" r:id="rId4"/>
+    <sheet name="PersonSearch" sheetId="4" r:id="rId5"/>
+    <sheet name="CaseCreation" sheetId="5" r:id="rId6"/>
   </sheets>
   <calcPr calcId="152511" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="101">
   <si>
     <t>username</t>
   </si>
@@ -299,6 +300,57 @@
   </si>
   <si>
     <t>01/02/2016</t>
+  </si>
+  <si>
+    <t>SheetName</t>
+  </si>
+  <si>
+    <t>Sign_Keyword</t>
+  </si>
+  <si>
+    <t>Keyword</t>
+  </si>
+  <si>
+    <t>Test Data</t>
+  </si>
+  <si>
+    <t>xpath</t>
+  </si>
+  <si>
+    <t>EnterText</t>
+  </si>
+  <si>
+    <t>Click</t>
+  </si>
+  <si>
+    <t>//*[@id='username']</t>
+  </si>
+  <si>
+    <t>//*[@id='password']</t>
+  </si>
+  <si>
+    <t>//*[@id='Login']</t>
+  </si>
+  <si>
+    <t>verifyExpected</t>
+  </si>
+  <si>
+    <t>//*[@id='userNavLabel']</t>
+  </si>
+  <si>
+    <t>StepName</t>
+  </si>
+  <si>
+    <t>Enter User Name</t>
+  </si>
+  <si>
+    <t>Enter Password</t>
+  </si>
+  <si>
+    <t>Click Login button</t>
+  </si>
+  <si>
+    <t>Verify User Name</t>
   </si>
 </sst>
 </file>
@@ -397,7 +449,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -436,6 +488,8 @@
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="3" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Hyperlink" xfId="2" builtinId="8"/>
@@ -1178,10 +1232,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1189,12 +1243,13 @@
     <col min="2" max="2" width="26.7265625" customWidth="1" collapsed="1"/>
     <col min="3" max="3" width="8" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="4" max="4" width="6.1796875" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="33.26953125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="6" max="6" width="17.26953125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="61.54296875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="22.1796875" customWidth="1"/>
+    <col min="6" max="6" width="33.26953125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="17.26953125" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="61.54296875" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A1" s="11" t="s">
         <v>3</v>
       </c>
@@ -1208,16 +1263,19 @@
         <v>17</v>
       </c>
       <c r="E1" s="11" t="s">
+        <v>84</v>
+      </c>
+      <c r="F1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="11" t="s">
-        <v>1</v>
-      </c>
       <c r="G1" s="11" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" s="11" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="12" customFormat="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.35">
       <c r="A2" s="10" t="s">
         <v>45</v>
       </c>
@@ -1225,22 +1283,25 @@
         <v>13</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D2" s="13">
         <v>1</v>
       </c>
-      <c r="E2" s="14" t="s">
+      <c r="E2" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="G2" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="H2" s="13" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="10" t="s">
         <v>49</v>
       </c>
@@ -1253,17 +1314,20 @@
       <c r="D3" s="13">
         <v>1</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F3" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="G3" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="H3" s="13" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="10" t="s">
         <v>50</v>
       </c>
@@ -1276,21 +1340,24 @@
       <c r="D4" s="13">
         <v>1</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="F4" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="G4" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="H4" s="13" t="s">
         <v>51</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="E2" r:id="rId1"/>
-    <hyperlink ref="E3" r:id="rId2"/>
-    <hyperlink ref="E4" r:id="rId3"/>
+    <hyperlink ref="F2" r:id="rId1"/>
+    <hyperlink ref="F3" r:id="rId2"/>
+    <hyperlink ref="F4" r:id="rId3"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1298,10 +1365,133 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="26.7265625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="14.90625" style="16" customWidth="1"/>
+    <col min="4" max="4" width="20.1796875" style="16" customWidth="1"/>
+    <col min="5" max="5" width="25.90625" style="16" customWidth="1"/>
+    <col min="6" max="6" width="20.453125" style="16" customWidth="1"/>
+    <col min="7" max="16384" width="8.7265625" style="16"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="D1" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="17" t="s">
+        <v>91</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>89</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="17" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>94</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="17" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter alignWithMargins="0"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1527,7 +1717,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M2"/>
   <sheetViews>
